--- a/pred_ohlcv/54_21/2020-01-21 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 VET ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>-1779666.041</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1792769.1282</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1793140.3592</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1793140.3592</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1823526.3592</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1785478.5219</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1785478.5219</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1786110.5219</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1787110.5219</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1724452.5219</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1856349.5219</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1723380.351</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1707206.4989</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1550961.623090205</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1550961.623090205</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1550235.173090206</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1520235.173090206</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1525193.172290205</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1493853.172290205</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1396853.172290205</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-103449718.2414902</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-103440631.1833902</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-103344175.3627902</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-103344100.3627902</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-103453716.3627902</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-103453129.0563902</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-103454629.1308902</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-104207037.340227</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-103910037.340227</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-103900354.023327</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-103900354.023327</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-103681390.762427</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-103674550.762427</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-103685763.612927</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-103377706.847027</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-103540025.163927</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-103540025.163927</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-103537025.163927</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-103742509.163927</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-103874187.621327</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-103987957.621327</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-104143931.848527</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-104143931.848527</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-104143931.848527</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-104130841.584327</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-104100841.584327</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-104120507.924327</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-104120684.910927</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-104124084.910927</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-104118492.731227</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-104146860.241427</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-104118387.074527</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-104016747.833527</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-104022188.644527</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-104178188.644527</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-21 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 VET ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>-1779666.041</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1792769.1282</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1793140.3592</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1793140.3592</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1823526.3592</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1785478.5219</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1785478.5219</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1856349.5219</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-4810158.290690206</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-102622715.2414902</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-103459627.2414902</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-104207037.340227</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-103900354.023327</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-103900354.023327</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-103674550.762427</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-103685763.612927</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-104143931.848527</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-104143931.848527</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-104143931.848527</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-104130841.584327</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-104100841.584327</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-104115841.584327</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-104120507.924327</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-104120684.910927</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-104124084.910927</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-104118492.731227</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-104146860.241427</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-104118387.074527</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-104016747.833527</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-104022188.644527</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-104178188.644527</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
